--- a/11/1/2/Número de viviendas y superficie 2008 a 2021 - Trimestral.xlsx
+++ b/11/1/2/Número de viviendas y superficie 2008 a 2021 - Trimestral.xlsx
@@ -1642,19 +1642,19 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>3226042</v>
+        <v>3298653</v>
       </c>
       <c r="C55">
-        <v>34542</v>
+        <v>35331</v>
       </c>
       <c r="D55">
-        <v>2616588</v>
+        <v>2687045</v>
       </c>
       <c r="E55">
-        <v>423603</v>
+        <v>424263</v>
       </c>
       <c r="F55">
-        <v>185851</v>
+        <v>187345</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/2/Número de viviendas y superficie 2008 a 2021 - Trimestral.xlsx
+++ b/11/1/2/Número de viviendas y superficie 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Serie</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,6 +1660,26 @@
         <v>187345</v>
       </c>
     </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>3465060</v>
+      </c>
+      <c r="C56">
+        <v>31998</v>
+      </c>
+      <c r="D56">
+        <v>2668340</v>
+      </c>
+      <c r="E56">
+        <v>627955</v>
+      </c>
+      <c r="F56">
+        <v>168765</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
